--- a/db/load/cdisc/ct/changes/2021-09-24/Protocol Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/Protocol Terminology Changes 2021-09-24.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,31 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62DA9169-8279-0F46-A4D5-213BEB43C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4015187-8561-5449-A35E-4015F728F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35440" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol Terminology Changes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Protocol Terminology Changes'!$A$1:$K$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Protocol Terminology Changes'!$A$1:$Q$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="136">
   <si>
     <t>Release Date</t>
   </si>
@@ -422,14 +413,32 @@
   </si>
   <si>
     <t>Study Protocol Version Approval by Oversight Committee Date</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Prev Codelist</t>
+  </si>
+  <si>
+    <t>Prev Term</t>
+  </si>
+  <si>
+    <t>New Codelists</t>
+  </si>
+  <si>
+    <t>New Terms</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -451,7 +460,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +473,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -488,11 +503,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,18 +534,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,12 +829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L2:Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -817,7 +848,7 @@
     <col min="12" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -851,8 +882,26 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>44463</v>
       </c>
@@ -884,8 +933,14 @@
         <v>97</v>
       </c>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>44463</v>
       </c>
@@ -917,8 +972,14 @@
         <v>88</v>
       </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>44463</v>
       </c>
@@ -950,8 +1011,14 @@
         <v>23</v>
       </c>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>44463</v>
       </c>
@@ -983,8 +1050,14 @@
         <v>99</v>
       </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>44463</v>
       </c>
@@ -1016,8 +1089,14 @@
         <v>101</v>
       </c>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>44463</v>
       </c>
@@ -1049,8 +1128,14 @@
         <v>103</v>
       </c>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>44463</v>
       </c>
@@ -1082,8 +1167,14 @@
         <v>105</v>
       </c>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>44463</v>
       </c>
@@ -1115,8 +1206,14 @@
         <v>107</v>
       </c>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>44463</v>
       </c>
@@ -1148,8 +1245,14 @@
         <v>25</v>
       </c>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>44463</v>
       </c>
@@ -1181,8 +1284,14 @@
         <v>109</v>
       </c>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>44463</v>
       </c>
@@ -1214,8 +1323,14 @@
         <v>111</v>
       </c>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>44463</v>
       </c>
@@ -1247,8 +1362,14 @@
         <v>113</v>
       </c>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>44463</v>
       </c>
@@ -1280,8 +1401,14 @@
         <v>115</v>
       </c>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>44463</v>
       </c>
@@ -1313,8 +1440,14 @@
         <v>117</v>
       </c>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>44463</v>
       </c>
@@ -1346,8 +1479,14 @@
         <v>119</v>
       </c>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>44463</v>
       </c>
@@ -1379,8 +1518,14 @@
         <v>121</v>
       </c>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>44463</v>
       </c>
@@ -1412,8 +1557,14 @@
         <v>123</v>
       </c>
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>44463</v>
       </c>
@@ -1445,8 +1596,14 @@
         <v>125</v>
       </c>
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>44463</v>
       </c>
@@ -1478,8 +1635,14 @@
         <v>127</v>
       </c>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>44463</v>
       </c>
@@ -1511,8 +1674,14 @@
         <v>129</v>
       </c>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>44463</v>
       </c>
@@ -1544,8 +1713,14 @@
         <v>30</v>
       </c>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>44463</v>
       </c>
@@ -1577,8 +1752,14 @@
         <v>30</v>
       </c>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>44463</v>
       </c>
@@ -1610,8 +1791,14 @@
         <v>30</v>
       </c>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>44463</v>
       </c>
@@ -1643,8 +1830,14 @@
         <v>30</v>
       </c>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>44463</v>
       </c>
@@ -1676,8 +1869,14 @@
         <v>30</v>
       </c>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>44463</v>
       </c>
@@ -1709,8 +1908,14 @@
         <v>30</v>
       </c>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>44463</v>
       </c>
@@ -1742,8 +1947,14 @@
         <v>30</v>
       </c>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>44463</v>
       </c>
@@ -1775,8 +1986,14 @@
         <v>30</v>
       </c>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>44463</v>
       </c>
@@ -1808,8 +2025,14 @@
         <v>30</v>
       </c>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>44463</v>
       </c>
@@ -1841,8 +2064,14 @@
         <v>30</v>
       </c>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>44463</v>
       </c>
@@ -1874,8 +2103,14 @@
         <v>30</v>
       </c>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>44463</v>
       </c>
@@ -1907,8 +2142,14 @@
         <v>30</v>
       </c>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>44463</v>
       </c>
@@ -1940,8 +2181,14 @@
         <v>30</v>
       </c>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>44463</v>
       </c>
@@ -1973,8 +2220,14 @@
         <v>30</v>
       </c>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>44463</v>
       </c>
@@ -2006,8 +2259,14 @@
         <v>30</v>
       </c>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>44463</v>
       </c>
@@ -2039,8 +2298,14 @@
         <v>30</v>
       </c>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>44463</v>
       </c>
@@ -2072,8 +2337,14 @@
         <v>30</v>
       </c>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>44463</v>
       </c>
@@ -2105,8 +2376,14 @@
         <v>30</v>
       </c>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44463</v>
       </c>
@@ -2138,8 +2415,14 @@
         <v>30</v>
       </c>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>44463</v>
       </c>
@@ -2171,8 +2454,14 @@
         <v>30</v>
       </c>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>44463</v>
       </c>
@@ -2204,8 +2493,14 @@
         <v>30</v>
       </c>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>44463</v>
       </c>
@@ -2237,8 +2532,14 @@
         <v>30</v>
       </c>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>44463</v>
       </c>
@@ -2270,8 +2571,14 @@
         <v>30</v>
       </c>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44463</v>
       </c>
@@ -2303,8 +2610,14 @@
         <v>30</v>
       </c>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44463</v>
       </c>
@@ -2336,8 +2649,14 @@
         <v>30</v>
       </c>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44463</v>
       </c>
@@ -2369,8 +2688,14 @@
         <v>30</v>
       </c>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44463</v>
       </c>
@@ -2402,8 +2727,14 @@
         <v>30</v>
       </c>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>44463</v>
       </c>
@@ -2435,8 +2766,14 @@
         <v>88</v>
       </c>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>44463</v>
       </c>
@@ -2468,8 +2805,14 @@
         <v>91</v>
       </c>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>44463</v>
       </c>
@@ -2501,8 +2844,14 @@
         <v>87</v>
       </c>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" ht="42" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>44463</v>
       </c>
@@ -2534,8 +2883,14 @@
         <v>95</v>
       </c>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>44463</v>
       </c>
@@ -2567,13 +2922,15 @@
         <v>30</v>
       </c>
       <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K11">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K53">
-      <sortCondition ref="C1:C11"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Q53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/db/load/cdisc/ct/changes/2021-09-24/Protocol Terminology Changes 2021-09-24.xlsx
+++ b/db/load/cdisc/ct/changes/2021-09-24/Protocol Terminology Changes 2021-09-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4015187-8561-5449-A35E-4015F728F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02919EE-296C-3545-8E8F-49F58BC39089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35440" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="35440" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Protocol Terminology Changes'!$A$1:$Q$53</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
